--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>558.6159000000363</v>
+        <v>285.8187999999926</v>
       </c>
       <c r="C2">
-        <v>2514.330800000039</v>
+        <v>4204.007900000031</v>
       </c>
       <c r="D2">
-        <v>277.1998000000345</v>
+        <v>-277.3774000000251</v>
       </c>
       <c r="E2">
-        <v>245.2611000000402</v>
+        <v>-818.0889999999918</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>285.8187999999926</v>
+        <v>289.1380999999952</v>
       </c>
       <c r="C2">
-        <v>4204.007900000031</v>
+        <v>5351.797200000035</v>
       </c>
       <c r="D2">
-        <v>-277.3774000000251</v>
+        <v>-283.4092000000094</v>
       </c>
       <c r="E2">
-        <v>-818.0889999999918</v>
+        <v>-2192.646199999967</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>289.1380999999952</v>
+        <v>284.5513999999987</v>
       </c>
       <c r="C2">
-        <v>5351.797200000035</v>
+        <v>5636.348600000034</v>
       </c>
       <c r="D2">
-        <v>-283.4092000000094</v>
+        <v>-297.8234</v>
       </c>
       <c r="E2">
-        <v>-2192.646199999967</v>
+        <v>-2490.469599999968</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>284.5513999999987</v>
+        <v>290.6138000000013</v>
       </c>
       <c r="C2">
-        <v>5636.348600000034</v>
+        <v>5926.962400000036</v>
       </c>
       <c r="D2">
-        <v>-297.8234</v>
+        <v>-287.6682000000011</v>
       </c>
       <c r="E2">
-        <v>-2490.469599999968</v>
+        <v>-2778.137799999967</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>290.6138000000013</v>
+        <v>296.8216999999913</v>
       </c>
       <c r="C2">
-        <v>5926.962400000036</v>
+        <v>7295.386300000009</v>
       </c>
       <c r="D2">
-        <v>-287.6682000000011</v>
+        <v>12.76869999998752</v>
       </c>
       <c r="E2">
-        <v>-2778.137799999967</v>
+        <v>-2549.068300000015</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>290.6138000000013</v>
+        <v>563.6151999999909</v>
       </c>
       <c r="C2">
-        <v>5926.962400000036</v>
+        <v>6998.564600000018</v>
       </c>
       <c r="D2">
-        <v>-287.6682000000011</v>
+        <v>277.3420999999926</v>
       </c>
       <c r="E2">
-        <v>-2778.137799999967</v>
+        <v>-2275.555899999985</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>296.8216999999913</v>
+        <v>570.5562000000169</v>
       </c>
       <c r="C2">
-        <v>7295.386300000009</v>
+        <v>7865.942500000026</v>
       </c>
       <c r="D2">
-        <v>12.76869999998752</v>
+        <v>286.5032000000132</v>
       </c>
       <c r="E2">
-        <v>-2549.068300000015</v>
+        <v>-1978.512099999999</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>570.5562000000169</v>
+        <v>290.8253000000096</v>
       </c>
       <c r="C2">
-        <v>7865.942500000026</v>
+        <v>8156.767800000036</v>
       </c>
       <c r="D2">
-        <v>286.5032000000132</v>
+        <v>8.024100000011742</v>
       </c>
       <c r="E2">
-        <v>-1978.512099999999</v>
+        <v>-1970.487999999985</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>290.8253000000096</v>
+        <v>568.4990999999803</v>
       </c>
       <c r="C2">
-        <v>8156.767800000036</v>
+        <v>8725.266900000015</v>
       </c>
       <c r="D2">
-        <v>8.024100000011742</v>
+        <v>293.1370999999961</v>
       </c>
       <c r="E2">
-        <v>-1970.487999999985</v>
+        <v>-1677.35089999999</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>568.4990999999803</v>
+        <v>575.4762999999895</v>
       </c>
       <c r="C2">
-        <v>8725.266900000015</v>
+        <v>9300.743200000006</v>
       </c>
       <c r="D2">
-        <v>293.1370999999961</v>
+        <v>306.6409999999884</v>
       </c>
       <c r="E2">
-        <v>-1677.35089999999</v>
+        <v>-1370.7099</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>575.4762999999895</v>
+        <v>538.4764000000235</v>
       </c>
       <c r="C2">
-        <v>9300.743200000006</v>
+        <v>9839.219600000029</v>
       </c>
       <c r="D2">
-        <v>306.6409999999884</v>
+        <v>269.6411000000224</v>
       </c>
       <c r="E2">
-        <v>-1370.7099</v>
+        <v>-832.2334999999766</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>538.4764000000235</v>
+        <v>358.1537999999973</v>
       </c>
       <c r="C2">
-        <v>9839.219600000029</v>
+        <v>358.1537999999973</v>
       </c>
       <c r="D2">
-        <v>269.6411000000224</v>
+        <v>89.31849999999622</v>
       </c>
       <c r="E2">
-        <v>-832.2334999999766</v>
+        <v>-10313.29930000001</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>358.1537999999973</v>
+        <v>279.9860000000009</v>
       </c>
       <c r="C2">
-        <v>358.1537999999973</v>
+        <v>638.1397999999981</v>
       </c>
       <c r="D2">
-        <v>89.31849999999622</v>
+        <v>11.1506999999998</v>
       </c>
       <c r="E2">
-        <v>-10313.29930000001</v>
+        <v>-10033.31330000001</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>279.9860000000009</v>
+        <v>286.9547000000001</v>
       </c>
       <c r="C2">
-        <v>638.1397999999981</v>
+        <v>925.0944999999981</v>
       </c>
       <c r="D2">
-        <v>11.1506999999998</v>
+        <v>18.11939999999902</v>
       </c>
       <c r="E2">
-        <v>-10033.31330000001</v>
+        <v>-9746.358600000009</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>286.9547000000001</v>
+        <v>557.0617000000013</v>
       </c>
       <c r="C2">
-        <v>925.0944999999981</v>
+        <v>1482.1562</v>
       </c>
       <c r="D2">
-        <v>18.11939999999902</v>
+        <v>288.2264000000002</v>
       </c>
       <c r="E2">
-        <v>-9746.358600000009</v>
+        <v>-9189.296900000007</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>557.0617000000013</v>
+        <v>289.6714999999999</v>
       </c>
       <c r="C2">
-        <v>1482.1562</v>
+        <v>1771.8277</v>
       </c>
       <c r="D2">
-        <v>288.2264000000002</v>
+        <v>20.83619999999883</v>
       </c>
       <c r="E2">
-        <v>-9189.296900000007</v>
+        <v>-8899.625400000006</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>当日</t>
   </si>
@@ -22,10 +22,16 @@
     <t>月累计</t>
   </si>
   <si>
-    <t>去年当日差值</t>
-  </si>
-  <si>
-    <t>去年累计差值</t>
+    <t>年累计</t>
+  </si>
+  <si>
+    <t>日利用小时</t>
+  </si>
+  <si>
+    <t>月利用小时</t>
+  </si>
+  <si>
+    <t>年利用小时</t>
   </si>
 </sst>
 </file>
@@ -383,41 +389,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>288.853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3">
+        <v>2060.680699999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4">
+        <v>127709.2368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>289.6714999999999</v>
-      </c>
-      <c r="C2">
-        <v>1771.8277</v>
-      </c>
-      <c r="D2">
-        <v>20.83619999999883</v>
-      </c>
-      <c r="E2">
-        <v>-8899.625400000006</v>
+      <c r="B5">
+        <v>7.874945474372955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56.179953653217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3481.713107960742</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>当日</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>年利用小时</t>
+  </si>
+  <si>
+    <t>每日油耗</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>288.853</v>
+        <v>585.864399999997</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2060.680699999999</v>
+        <v>2646.5451</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>127709.2368</v>
+        <v>128295.1012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.874945474372955</v>
+        <v>15.977175572519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56.179953653217</v>
+        <v>72.1571292257361</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -445,7 +448,15 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3481.713107960742</v>
+        <v>3497.690283533261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>120.884999999999</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -34,7 +34,7 @@
     <t>年利用小时</t>
   </si>
   <si>
-    <t>每日油耗</t>
+    <t>每日气耗</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>585.864399999997</v>
+        <v>300.8759000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2646.5451</v>
+        <v>3246.556899999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128295.1012</v>
+        <v>128895.113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.977175572519</v>
+        <v>8.202723555070886</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72.1571292257361</v>
+        <v>88.51027535441655</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3497.690283533261</v>
+        <v>3514.043429661942</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>120.884999999999</v>
+        <v>63.37000000000116</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -34,7 +34,7 @@
     <t>年利用小时</t>
   </si>
   <si>
-    <t>每日油耗</t>
+    <t>每日气耗</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>585.864399999997</v>
+        <v>299.1409000000026</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2646.5451</v>
+        <v>2945.680999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128295.1012</v>
+        <v>128594.2371</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.977175572519</v>
+        <v>8.155422573609668</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72.1571292257361</v>
+        <v>80.30755179934567</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3497.690283533261</v>
+        <v>3505.840706106871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>120.884999999999</v>
+        <v>62.8</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300.8759000000001</v>
+        <v>509.2394000000011</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3246.556899999999</v>
+        <v>3755.7963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128895.113</v>
+        <v>129404.3524</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.202723555070886</v>
+        <v>13.88329880043624</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>88.51027535441655</v>
+        <v>102.3935741548528</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3514.043429661942</v>
+        <v>3527.926728462378</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63.37000000000116</v>
+        <v>108.2799999999989</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>509.2394000000011</v>
+        <v>577.4165999999991</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3755.7963</v>
+        <v>4333.2129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>129404.3524</v>
+        <v>129981.769</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.88329880043624</v>
+        <v>15.74200109051252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>102.3935741548528</v>
+        <v>118.1355752453653</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3527.926728462378</v>
+        <v>3543.668729552891</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>108.2799999999989</v>
+        <v>119.1099999999978</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>577.4165999999991</v>
+        <v>405.5346999999966</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4333.2129</v>
+        <v>4738.747599999996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>129981.769</v>
+        <v>130387.3037</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.74200109051252</v>
+        <v>11.05601690294429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>118.1355752453653</v>
+        <v>129.1915921483096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3543.668729552891</v>
+        <v>3554.724746455835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>119.1099999999978</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>405.5346999999966</v>
+        <v>302.7658999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4738.747599999996</v>
+        <v>5331.983599999996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130387.3037</v>
+        <v>130980.5397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.05601690294429</v>
+        <v>8.254250272628134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>129.1915921483096</v>
+        <v>145.3648745910577</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3554.724746455835</v>
+        <v>3570.898028898583</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86.59999999999999</v>
+        <v>63.72000000000111</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>302.7658999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.254250272628134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63.72000000000111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>405.5346999999966</v>
+        <v>290.4700999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4738.747599999996</v>
+        <v>5029.217699999997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130387.3037</v>
+        <v>130677.7738</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.05601690294429</v>
+        <v>7.919032170119955</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>129.1915921483096</v>
+        <v>137.1106243184296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3554.724746455835</v>
+        <v>3562.643778625955</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86.59999999999999</v>
+        <v>61.42999999999888</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>290.4700999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5029.217699999997</v>
+        <v>5331.983599999996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130677.7738</v>
+        <v>130980.5397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.919032170119955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>137.1106243184296</v>
+        <v>145.3648745910577</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3562.643778625955</v>
+        <v>3570.898028898583</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61.42999999999888</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>550.0667999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5331.983599999996</v>
+        <v>550.0667999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130980.5397</v>
+        <v>550.0667999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14.99636859323882</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>145.3648745910577</v>
+        <v>14.99636859323882</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3570.898028898583</v>
+        <v>14.99636859323882</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>116.6908000000035</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>550.0667999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.99636859323882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>116.6908000000035</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/输出/电量完成日out.xlsx
+++ b/工作代码/每日报表/输出/电量完成日out.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>243.9820000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>550.0667999999999</v>
+        <v>794.0488000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>550.0667999999999</v>
+        <v>794.0488000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.651635768811349</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.99636859323882</v>
+        <v>21.64800436205017</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.99636859323882</v>
+        <v>21.64800436205017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>51.82270000000003</v>
       </c>
     </row>
   </sheetData>
